--- a/chris/Data/liquidated_debt_certificates_PA_story.xlsx
+++ b/chris/Data/liquidated_debt_certificates_PA_story.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisliao/Google Drive/Non-Academic Work/Research/Sargent/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisliao/Google Drive/Non-Academic Work/Research/Sargent/SPEOC-pt-1/chris/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E21109-F8DD-C840-B70E-57A878172BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEBAAC0-D5AB-A448-A3DB-C087D2E0CBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="14340" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3144" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3145" uniqueCount="882">
   <si>
     <t>First name</t>
   </si>
@@ -2678,6 +2678,9 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
 </sst>
 </file>
@@ -2905,6 +2908,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2920,22 +2938,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3290,8 +3293,8 @@
   <dimension ref="A1:AM970"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A966" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E970" sqref="E970"/>
+      <pane ySplit="12" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S46" sqref="S46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3327,17 +3330,17 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="44" t="s">
         <v>879</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -3432,17 +3435,17 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="45" t="s">
         <v>876</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -3471,20 +3474,20 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="45" t="s">
         <v>877</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -3652,11 +3655,11 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="23"/>
@@ -3676,43 +3679,43 @@
       <c r="AG10" s="13"/>
     </row>
     <row r="11" spans="1:33" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="48" t="s">
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="41" t="s">
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="44" t="s">
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="R11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="38"/>
+      <c r="S11" s="43"/>
       <c r="T11" s="15" t="s">
         <v>24</v>
       </c>
@@ -3731,10 +3734,10 @@
       <c r="AG11" s="13"/>
     </row>
     <row r="12" spans="1:33" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="43"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="14" t="s">
         <v>2</v>
       </c>
@@ -3771,9 +3774,9 @@
       <c r="P12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
       <c r="T12" s="15"/>
       <c r="U12" s="14" t="s">
         <v>14</v>
@@ -8802,7 +8805,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
         <v>3</v>
       </c>
@@ -8852,7 +8855,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
         <v>3</v>
       </c>
@@ -8896,7 +8899,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
         <v>3</v>
       </c>
@@ -8943,7 +8946,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
         <v>3</v>
       </c>
@@ -8996,7 +8999,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A117" s="16">
         <v>3</v>
       </c>
@@ -9037,7 +9040,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A118" s="16">
         <v>3</v>
       </c>
@@ -9084,7 +9087,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A119" s="16">
         <v>3</v>
       </c>
@@ -9128,7 +9131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A120" s="16">
         <v>3</v>
       </c>
@@ -9171,8 +9174,11 @@
       <c r="T120" s="18">
         <v>884</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U120" s="18" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A121" s="16">
         <v>3</v>
       </c>
@@ -9216,7 +9222,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A122" s="16">
         <v>3</v>
       </c>
@@ -9257,7 +9263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A123" s="16">
         <v>4</v>
       </c>
@@ -9301,7 +9307,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A124" s="16">
         <v>4</v>
       </c>
@@ -9345,7 +9351,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A125" s="16">
         <v>4</v>
       </c>
@@ -9392,7 +9398,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
         <v>4</v>
       </c>
@@ -9439,7 +9445,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A127" s="16">
         <v>4</v>
       </c>
@@ -9483,7 +9489,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A128" s="16">
         <v>4</v>
       </c>
@@ -47201,11 +47207,6 @@
     <sortCondition ref="G13:G967"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="D11:D12"/>
     <mergeCell ref="R11:S12"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B4:J4"/>
@@ -47214,6 +47215,11 @@
     <mergeCell ref="N10:P11"/>
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
